--- a/conf/crule_test.xlsx
+++ b/conf/crule_test.xlsx
@@ -20,38 +20,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t xml:space="preserve">@fastcner</t>
   </si>
   <si>
+    <t xml:space="preserve">@PROBLEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PseudoConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@VISUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uima.tcas.Annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vf1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vf2</t>
+  </si>
+  <si>
     <t xml:space="preserve">#The patient denies any problem with visual changes or hearing changes.</t>
   </si>
   <si>
+    <t xml:space="preserve">PROBLEM</t>
+  </si>
+  <si>
     <t xml:space="preserve">any\s+(problem)</t>
   </si>
   <si>
-    <t xml:space="preserve">PROBLEM</t>
+    <t xml:space="preserve">VISUAL</t>
   </si>
   <si>
     <t xml:space="preserve">with\s+(visual) change</t>
   </si>
   <si>
-    <t xml:space="preserve">VISUAL</t>
+    <t xml:space="preserve">PSEUDO_HEARING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSEUDO</t>
   </si>
   <si>
     <t xml:space="preserve">hearing) changes</t>
   </si>
   <si>
-    <t xml:space="preserve">PSEUDO_HEARING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSEUDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hearing changes</t>
-  </si>
-  <si>
     <t xml:space="preserve">HEARING</t>
   </si>
   <si>
@@ -61,16 +82,16 @@
     <t xml:space="preserve">he att</t>
   </si>
   <si>
+    <t xml:space="preserve">edu.utah.bmi.nlp.type.system.Fever_present</t>
+  </si>
+  <si>
     <t xml:space="preserve">T\s+1\d\d.\d[|F|\s+F]) </t>
   </si>
   <si>
-    <t xml:space="preserve">edu.utah.bmi.type.system.Fever_present</t>
+    <t xml:space="preserve">edu.utah.bmi.nlp.type.system.Fever_absent</t>
   </si>
   <si>
     <t xml:space="preserve">TT\s+\d+[|.\d] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">edu.utah.bmi.type.system.Fever_absent</t>
   </si>
   <si>
     <t xml:space="preserve">[T|t]emperature\s+[|\c+\s+]1\d\d[|.\d][|F|\s+F])[\p|\w]</t>
@@ -83,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -104,6 +125,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAEB5BD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,8 +176,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,6 +194,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFAEB5BD"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -170,18 +262,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.7755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.86224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.6224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.48469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.48469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="7.86734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -193,110 +285,133 @@
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.5</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>3</v>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>14</v>
+      <c r="C13" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/conf/crule_test.xlsx
+++ b/conf/crule_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="crule_test" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t xml:space="preserve">@fastcner</t>
   </si>
@@ -64,16 +64,13 @@
     <t xml:space="preserve">with\s+(visual) change</t>
   </si>
   <si>
-    <t xml:space="preserve">PSEUDO_HEARING</t>
+    <t xml:space="preserve">HEARING</t>
   </si>
   <si>
     <t xml:space="preserve">PSEUDO</t>
   </si>
   <si>
     <t xml:space="preserve">hearing) changes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEARING</t>
   </si>
   <si>
     <t xml:space="preserve">he (pa)t</t>
@@ -264,16 +261,16 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.48469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.219387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="7.86734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="7.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,7 +328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
@@ -353,12 +350,12 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.5</v>
@@ -369,24 +366,24 @@
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>15</v>
@@ -394,30 +391,30 @@
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
